--- a/docs/2021_2022_proj_auto_avaliacao.xlsx
+++ b/docs/2021_2022_proj_auto_avaliacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usr\ist\2021_2022_RC\Lab\Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8689BB24-3B71-4076-85F3-4696F6080DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA11015-48B6-4059-92CA-8A05806100AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autoavaliação" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
   <si>
     <t>Redes de Computadores 2021/2022</t>
   </si>
@@ -454,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,11 +1010,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="4" customWidth="1"/>
@@ -1024,25 +1024,25 @@
     <col min="7" max="7" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1069,35 +1069,35 @@
       <c r="D6" s="7"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.95" thickBot="1">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="15"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="16" t="s">
         <v>8</v>
@@ -1105,7 +1105,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="15.95" thickBot="1">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1334,13 +1334,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -1430,31 +1430,31 @@
       <c r="F30" s="9"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="15.6">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.9" customHeight="1">
+    <row r="33" spans="1:7" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="24"/>
     </row>
-    <row r="34" spans="1:7" ht="14.65" thickBot="1">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="13"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>47</v>
       </c>
@@ -1467,212 +1467,286 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E37" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E38" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E39" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E40" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E44" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E45" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E46" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E47" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E48" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E49" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E50" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E51" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E52" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="9"/>
+      <c r="B53" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E54" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E56" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G56" s="4"/>
     </row>
   </sheetData>
@@ -1736,13 +1810,13 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>86</v>
       </c>
@@ -1759,7 +1833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>91</v>
       </c>
@@ -1776,7 +1850,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>93</v>
       </c>
@@ -1793,7 +1867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1810,7 +1884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>96</v>
       </c>
@@ -1824,7 +1898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>98</v>
       </c>
@@ -1835,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>99</v>
       </c>
@@ -1843,7 +1917,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>100</v>
       </c>
@@ -1851,7 +1925,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>101</v>
       </c>
@@ -1859,7 +1933,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>2</v>
       </c>
